--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,13 +428,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="6" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -443,7 +443,7 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="4" customWidth="1" min="14" max="14"/>
     <col width="4" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="5" customWidth="1" min="18" max="18"/>
     <col width="5" customWidth="1" min="19" max="19"/>
@@ -562,6 +562,1564 @@
         <is>
           <t>fta</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Devin McGlockton</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>11</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Marcus Hill</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Tyler Nickel</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>8</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Rylan Griffen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Rashaun Agee</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Tyler Tanner</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Jalen Washington</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Rubén Dominguez</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="n">
+        <v>8</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+      <c r="I11" t="n">
+        <v>8</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 1:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +2133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -583,7 +2141,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="7" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
@@ -605,6 +2163,58 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Boozers Losers</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hilton Heads</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>The Oddities</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>G-Flop</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -607,7 +607,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -622,22 +622,22 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q2" t="n">
         <v>4</v>
       </c>
       <c r="R2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
       </c>
       <c r="T2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -679,47 +679,47 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
+        <v>16</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" t="n">
         <v>12</v>
       </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>7</v>
-      </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>1</v>
@@ -761,47 +761,47 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
+        <v>20</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>7</v>
+      </c>
+      <c r="R4" t="n">
         <v>11</v>
       </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>8</v>
-      </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -871,19 +871,19 @@
         <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,23 +925,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
         <v>4</v>
       </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -950,22 +950,22 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q6" t="n">
         <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,26 +1007,26 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
@@ -1047,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1099,7 +1099,7 @@
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
         <v>2</v>
@@ -1171,17 +1171,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1196,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1275,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1335,23 +1335,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
         <v>8</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1417,18 +1417,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>9</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1436,28 +1436,28 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,23 +1499,23 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1527,19 +1527,19 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1581,14 +1581,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
@@ -1603,25 +1603,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1663,11 +1663,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1688,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1758,7 +1758,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,11 +1991,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 1:00 PM EST</t>
+          <t>15:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2166,11 +2166,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2179,11 +2179,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -597,41 +597,41 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="I2" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="n">
         <v>6</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>4</v>
-      </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S2" t="n">
         <v>1</v>
@@ -640,10 +640,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="n">
         <v>2</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Q3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>1</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -761,14 +761,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
         <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>2</v>
@@ -783,31 +783,31 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="Q4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
       </c>
       <c r="T4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -843,20 +843,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,53 +925,53 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
       <c r="R6" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,53 +1007,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
+        <v>4</v>
+      </c>
+      <c r="J7" t="n">
         <v>3</v>
       </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1089,20 +1089,20 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I8" t="n">
         <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1171,11 +1171,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S9" t="n">
         <v>1</v>
@@ -1253,17 +1253,17 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>3</v>
@@ -1275,13 +1275,13 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q10" t="n">
         <v>4</v>
@@ -1296,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>11</v>
+      </c>
+      <c r="I11" t="n">
         <v>9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>8</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
@@ -1378,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>2</v>
@@ -1402,12 +1402,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1417,35 +1417,35 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
@@ -1460,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1499,41 +1499,41 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1581,47 +1581,47 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>8</v>
+      </c>
+      <c r="I14" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>6</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q14" t="n">
         <v>4</v>
       </c>
-      <c r="P14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1663,23 +1663,23 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1730,12 +1730,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,20 +1745,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:41 - 2nd Half</t>
+          <t>11:31 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2166,11 +2166,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2179,11 +2179,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,11 +597,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" t="n">
         <v>17</v>
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -679,17 +679,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" t="n">
         <v>20</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q3" t="n">
         <v>9</v>
       </c>
       <c r="R3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -818,72 +818,72 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
         <v>5</v>
       </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
         <v>4</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>7</v>
-      </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -900,42 +900,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -982,7 +982,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1007,53 +1007,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>14</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>11</v>
+      </c>
+      <c r="U7" t="n">
         <v>4</v>
       </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>9</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1064,45 +1064,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1111,31 +1111,31 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1146,45 +1146,45 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1199,19 +1199,19 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1228,78 +1228,78 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17</v>
+        <v>-1</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1310,42 +1310,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1354,34 +1354,34 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1392,78 +1392,78 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,32 +1484,32 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="n">
         <v>8</v>
       </c>
-      <c r="I13" t="n">
-        <v>2</v>
-      </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1518,28 +1518,28 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1603,25 +1603,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1638,48 +1638,48 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>Sat, February 14th at 3:00 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1720,22 +1720,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,53 +1745,53 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
+      <c r="R16" t="n">
+        <v>12</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
         <v>4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1802,22 +1802,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1827,23 +1827,23 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1852,22 +1852,22 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,12 +1894,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1909,53 +1909,53 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1991,20 +1991,20 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>11:31 - 2nd Half</t>
+          <t>4:57 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2013,25 +2013,25 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
         <v>4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2058,67 +2058,969 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>23</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="n">
+        <v>4</v>
+      </c>
+      <c r="U20" t="n">
+        <v>11</v>
+      </c>
+      <c r="V20" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>11</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>8</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
+        <v>5</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2</v>
+      </c>
+      <c r="O25" t="n">
+        <v>5</v>
+      </c>
+      <c r="P25" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 3:00 PM EST</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>3</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>TA&amp;M@VAN</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>11:31 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>4:57 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>-3</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
         <v>4</v>
       </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2133,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2141,7 +3043,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
   </cols>
@@ -2166,24 +3068,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2196,7 +3098,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -2209,10 +3111,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>The Backslashers</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Bend Rimmers</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Three Dawg Nite</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V31"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -736,39 +736,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -804,10 +804,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -823,17 +823,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -843,20 +843,20 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
         <v>4</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -925,11 +925,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -982,42 +982,42 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22</v>
+        <v>-1</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
@@ -1026,34 +1026,34 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1064,45 +1064,45 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1117,16 +1117,16 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>1</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1156,32 +1156,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
         <v>1</v>
@@ -1190,34 +1190,34 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>8</v>
+      </c>
+      <c r="R9" t="n">
+        <v>14</v>
+      </c>
+      <c r="S9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1335,20 +1335,20 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1360,22 +1360,22 @@
         <v>1</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1474,22 +1474,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,47 +1499,47 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>-3</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,35 +1566,35 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
         <v>5</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1606,22 +1606,22 @@
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1648,35 +1648,35 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1720,78 +1720,78 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1802,72 +1802,72 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1884,22 +1884,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1909,53 +1909,53 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
         <v>8</v>
       </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-      <c r="P18" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>3</v>
-      </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,45 +1966,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2013,25 +2013,25 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2048,78 +2048,78 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2130,42 +2130,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2174,34 +2174,34 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,68 +2222,68 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,53 +2304,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>15:01 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2401,53 +2401,53 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I24" t="n">
         <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2458,22 +2458,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,47 +2483,47 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2540,45 +2540,45 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Sat, February 14th at 3:30 PM EST</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -2590,22 +2590,22 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:00 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2729,17 +2729,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2751,25 +2751,25 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
       </c>
       <c r="P28" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="n">
         <v>4</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2796,12 +2796,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2811,53 +2811,53 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I29" t="n">
+        <v>23</v>
+      </c>
+      <c r="J29" t="n">
+        <v>5</v>
+      </c>
+      <c r="K29" t="n">
         <v>3</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P29" t="n">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
@@ -2878,12 +2878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2893,17 +2893,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>4:57 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2912,34 +2912,34 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
         <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,67 +2960,1379 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>Ali Dibba</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>11</v>
+      </c>
+      <c r="I31" t="n">
+        <v>9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Pop Isaacs</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>4</v>
+      </c>
+      <c r="P33" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>8</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="n">
+        <v>5</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2</v>
+      </c>
+      <c r="O34" t="n">
+        <v>5</v>
+      </c>
+      <c r="P34" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>4</v>
+      </c>
+      <c r="P35" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 3:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1</v>
+      </c>
+      <c r="T43" t="n">
+        <v>3</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>15:01 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>TA&amp;M@VAN</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>4:57 - 2nd Half</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
         <v>-3</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>2</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3101,33 +4413,33 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
         <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3137,10 +4449,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3150,7 +4462,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V47"/>
+  <dimension ref="A1:V56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,17 +761,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>9</v>
       </c>
       <c r="I5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>8</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
         <v>3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,47 +925,47 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,35 +992,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1029,25 +1029,25 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q7" t="n">
         <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1074,26 +1074,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1105,31 +1105,31 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1253,11 +1253,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1281,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q10" t="n">
         <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1310,45 +1310,45 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1357,22 +1357,22 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
         <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
         <v>1</v>
@@ -1417,23 +1417,23 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -1445,25 +1445,25 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1521,16 +1521,16 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>2</v>
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,7 +1566,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1581,53 +1581,53 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>6</v>
       </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Q14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1638,17 +1638,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1663,11 +1663,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -1725,17 +1725,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1745,47 +1745,47 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1807,17 +1807,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1827,41 +1827,41 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1884,72 +1884,72 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="I18" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>4</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1</v>
-      </c>
-      <c r="O18" t="n">
-        <v>5</v>
-      </c>
-      <c r="P18" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
       <c r="R18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1966,45 +1966,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -2073,20 +2073,20 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2101,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2140,62 +2140,62 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2217,40 +2217,40 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2259,25 +2259,25 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P22" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,37 +2299,37 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2347,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
@@ -2376,42 +2376,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2420,34 +2420,34 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
         <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2458,48 +2458,48 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2508,22 +2508,22 @@
         <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2540,48 +2540,48 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -2590,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -2627,17 +2627,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -2651,37 +2651,37 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2709,17 +2709,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2733,19 +2733,19 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
+        <v>4</v>
+      </c>
+      <c r="J28" t="n">
         <v>3</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2754,22 +2754,22 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2786,78 +2786,78 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="Q29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,7 +2878,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2897,49 +2897,49 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
         <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
         <v>4</v>
-      </c>
-      <c r="R30" t="n">
-        <v>9</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>4</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2979,19 +2979,19 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>11</v>
+        <v>-2</v>
       </c>
       <c r="I31" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3003,25 +3003,25 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S31" t="n">
         <v>1</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3042,12 +3042,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3061,49 +3061,49 @@
         </is>
       </c>
       <c r="H32" t="n">
+        <v>25</v>
+      </c>
+      <c r="I32" t="n">
+        <v>23</v>
+      </c>
+      <c r="J32" t="n">
+        <v>5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
         <v>8</v>
       </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
         <v>4</v>
       </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>4</v>
-      </c>
-      <c r="P32" t="n">
+      <c r="U32" t="n">
+        <v>11</v>
+      </c>
+      <c r="V32" t="n">
         <v>14</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3124,12 +3124,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3143,49 +3143,49 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q33" t="n">
         <v>4</v>
       </c>
-      <c r="P33" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
       <c r="R33" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3225,49 +3225,49 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I34" t="n">
         <v>9</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>8</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
         <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,34 +3307,34 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>8</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" t="n">
         <v>4</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>3</v>
-      </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
         <v>4</v>
       </c>
       <c r="P35" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" t="n">
         <v>1</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3370,62 +3370,62 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>8</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="I36" t="n">
-        <v>3</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1</v>
-      </c>
       <c r="R36" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3452,32 +3452,32 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3489,25 +3489,25 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,38 +3534,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3574,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3616,62 +3616,62 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
         <v>3</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3717,16 +3717,16 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3738,22 +3738,22 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,32 +3780,32 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 3:30 PM EST</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3817,31 +3817,31 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,38 +3862,38 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -3905,19 +3905,19 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,62 +3944,62 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
+        <v>2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>3</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>20</v>
-      </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4026,35 +4026,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4063,19 +4063,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4108,35 +4108,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>18:48 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4148,22 +4148,22 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4205,11 +4205,11 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>15:01 - 1st Half</t>
+          <t>11:17 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4218,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4233,19 +4233,19 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4272,67 +4272,805 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>11:17 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18:48 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Urban Klavzar</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>11:17 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>2</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>11:17 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18:48 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18:48 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>TA&amp;M@VAN</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H56" t="n">
         <v>-3</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" t="n">
-        <v>2</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +5122,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
@@ -4393,53 +5131,53 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -4449,7 +5187,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -4458,14 +5196,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,14 +761,14 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -843,53 +843,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H5" t="n">
+        <v>17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
         <v>9</v>
       </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
         <v>8</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
-      <c r="V5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -910,12 +910,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -925,47 +925,47 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
+        <v>2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
         <v>9</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>15</v>
-      </c>
       <c r="Q6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,35 +992,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1029,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1074,35 +1074,35 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>2</v>
@@ -1281,19 +1281,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1360,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
         <v>2</v>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1417,35 +1417,35 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H12" t="n">
         <v>6</v>
       </c>
       <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
         <v>5</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="n">
         <v>2</v>
@@ -1460,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1484,12 +1484,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1499,53 +1499,53 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
+        <v>3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>2</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>2</v>
-      </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>8</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1663,14 +1663,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1745,17 +1745,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1770,16 +1770,16 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,11 +1827,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
@@ -1843,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1855,19 +1855,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U17" t="n">
         <v>1</v>
@@ -1909,14 +1909,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1937,19 +1937,19 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q18" t="n">
+        <v>6</v>
+      </c>
+      <c r="R18" t="n">
+        <v>9</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="n">
         <v>5</v>
-      </c>
-      <c r="R18" t="n">
-        <v>7</v>
-      </c>
-      <c r="S18" t="n">
-        <v>3</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2013,19 +2013,19 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J20" t="n">
         <v>2</v>
@@ -2101,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
         <v>6</v>
       </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3</v>
-      </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2155,14 +2155,14 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
         <v>5</v>
@@ -2180,16 +2180,16 @@
         <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="Q21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2222,62 +2222,62 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2304,35 +2304,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2341,25 +2341,25 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P23" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="Q23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2401,14 +2401,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2423,25 +2423,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2468,35 +2468,35 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>1</v>
@@ -2505,19 +2505,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2550,35 +2550,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -2587,31 +2587,31 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2811,17 +2811,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>-1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2833,31 +2833,31 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,62 +3370,62 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3452,7 +3452,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3474,40 +3474,40 @@
         <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P37" t="n">
         <v>14</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,62 +3534,62 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
+        <v>8</v>
+      </c>
+      <c r="I38" t="n">
+        <v>8</v>
+      </c>
+      <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>4</v>
+      </c>
+      <c r="P38" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>8</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="n">
         <v>5</v>
-      </c>
-      <c r="I38" t="n">
-        <v>2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>1</v>
-      </c>
-      <c r="P38" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1</v>
-      </c>
-      <c r="R38" t="n">
-        <v>1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3616,62 +3616,62 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>8</v>
+      </c>
+      <c r="I39" t="n">
+        <v>9</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>2</v>
+      </c>
+      <c r="O39" t="n">
+        <v>5</v>
+      </c>
+      <c r="P39" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3</v>
-      </c>
-      <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
+        <v>7</v>
+      </c>
+      <c r="I40" t="n">
+        <v>8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
         <v>4</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>3</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
+      <c r="V40" t="n">
         <v>4</v>
-      </c>
-      <c r="P40" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>1</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3795,47 +3795,47 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I41" t="n">
+        <v>7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>2</v>
+      </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>2</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
         <v>2</v>
@@ -3862,12 +3862,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3877,26 +3877,26 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3905,19 +3905,19 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>2</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3981,19 +3981,19 @@
         <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -4041,17 +4041,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
@@ -4078,10 +4078,10 @@
         <v>1</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,7 +4108,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -4123,17 +4123,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q45" t="n">
         <v>1</v>
@@ -4190,38 +4190,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4230,22 +4230,22 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4272,12 +4272,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -4309,25 +4309,25 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Q47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,62 +4354,62 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>2</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4473,25 +4473,25 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q49" t="n">
         <v>1</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>11:17 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4943,14 +4943,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>18:48 - 1st Half</t>
+          <t>3:41 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>-1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -4965,25 +4965,25 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5118,27 +5118,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -5157,24 +5157,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -5187,7 +5187,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -5196,14 +5196,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
@@ -774,7 +774,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -843,11 +843,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I5" t="n">
         <v>16</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
         <v>5</v>
@@ -910,17 +910,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -929,43 +929,43 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,53 +1007,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
         <v>5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
         <v>13</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>23</v>
-      </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
         <v>5</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -1253,35 +1253,35 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
         <v>7</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="n">
         <v>2</v>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1445,13 +1445,13 @@
         <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>8</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3</v>
-      </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -1524,16 +1524,16 @@
         <v>2</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1591,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -1603,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1691,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q15" t="n">
         <v>1</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>9</v>
@@ -1773,13 +1773,13 @@
         <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Q16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1852,10 +1852,10 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -1909,14 +1909,14 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1937,13 +1937,13 @@
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>5</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q19" t="n">
         <v>2</v>
@@ -2058,68 +2058,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P20" t="n">
         <v>17</v>
       </c>
       <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
-        <v>6</v>
-      </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2159,43 +2159,43 @@
         </is>
       </c>
       <c r="H21" t="n">
+        <v>12</v>
+      </c>
+      <c r="I21" t="n">
+        <v>11</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
         <v>8</v>
       </c>
-      <c r="I21" t="n">
-        <v>4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>5</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>2</v>
-      </c>
-      <c r="O21" t="n">
-        <v>3</v>
-      </c>
-      <c r="P21" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>4</v>
-      </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2237,17 +2237,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2265,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="Q22" t="n">
         <v>1</v>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2483,14 +2483,14 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
         <v>2</v>
@@ -2508,16 +2508,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2565,20 +2565,20 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -2587,25 +2587,25 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2811,20 +2811,20 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
@@ -2854,10 +2854,10 @@
         <v>1</v>
       </c>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J34" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
         <v>1</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
+        <v>11</v>
+      </c>
+      <c r="I35" t="n">
         <v>9</v>
       </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
@@ -3385,17 +3385,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -3410,22 +3410,22 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3723,7 +3723,7 @@
         <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
@@ -3738,22 +3738,22 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
         <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U40" t="n">
         <v>4</v>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3959,26 +3959,26 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
@@ -3987,19 +3987,19 @@
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4287,14 +4287,14 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -4315,19 +4315,19 @@
         <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,12 +4354,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4369,17 +4369,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
@@ -4388,22 +4388,22 @@
         <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P48" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4451,47 +4451,47 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
         <v>0</v>
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:52 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>3:41 - 1st Half</t>
+          <t>Halftime</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5157,14 +5157,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5174,7 +5174,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
@@ -5183,27 +5183,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -761,20 +761,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -786,16 +786,16 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -843,53 +843,53 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -925,47 +925,47 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -992,12 +992,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1007,53 +1007,53 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>4</v>
+      </c>
+      <c r="P7" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>20</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>5</v>
       </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -1074,12 +1074,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1089,23 +1089,23 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>5</v>
       </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1253,47 +1253,47 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="n">
         <v>7</v>
-      </c>
-      <c r="I10" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
       </c>
       <c r="U10" t="n">
         <v>1</v>
@@ -1335,17 +1335,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
@@ -1417,18 +1417,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>17</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" t="n">
-        <v>8</v>
-      </c>
-      <c r="J12" t="n">
-        <v>8</v>
-      </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
@@ -1436,22 +1436,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1499,20 +1499,20 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>2</v>
@@ -1521,31 +1521,31 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1581,23 +1581,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q14" t="n">
         <v>2</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>3</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1663,14 +1663,14 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1745,17 +1745,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I16" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
@@ -1773,13 +1773,13 @@
         <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1837,10 +1837,10 @@
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>2</v>
@@ -1849,19 +1849,19 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1909,20 +1909,20 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I18" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
@@ -1931,31 +1931,31 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q18" t="n">
         <v>7</v>
       </c>
       <c r="R18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
         <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1991,14 +1991,14 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
         <v>4</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,68 +2058,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I20" t="n">
+        <v>18</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="n">
         <v>8</v>
       </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2</v>
-      </c>
-      <c r="O20" t="n">
-        <v>4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2140,68 +2140,68 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2237,17 +2237,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2265,13 +2265,13 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2401,17 +2401,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="I24" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2423,25 +2423,25 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>3</v>
       </c>
       <c r="P25" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R25" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
       </c>
       <c r="V25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -2550,35 +2550,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
         <v>5</v>
       </c>
-      <c r="I26" t="n">
-        <v>5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
       <c r="K26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
         <v>1</v>
@@ -2587,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P26" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q26" t="n">
         <v>2</v>
@@ -2602,16 +2602,16 @@
         <v>6</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2632,57 +2632,57 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>17</v>
+      </c>
+      <c r="I27" t="n">
+        <v>17</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2</v>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>6</v>
+      </c>
+      <c r="R27" t="n">
         <v>9</v>
       </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>11</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="n">
-        <v>1</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3</v>
-      </c>
-      <c r="R27" t="n">
-        <v>12</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
@@ -2690,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2714,12 +2714,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -2733,49 +2733,49 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3124,62 +3124,62 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I33" t="n">
         <v>11</v>
       </c>
       <c r="J33" t="n">
+        <v>3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
         <v>6</v>
       </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1</v>
-      </c>
-      <c r="P33" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>9</v>
-      </c>
       <c r="S33" t="n">
         <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
         <v>2</v>
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I34" t="n">
+        <v>19</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q34" t="n">
         <v>7</v>
       </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
+      <c r="R34" t="n">
         <v>13</v>
       </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,49 +3307,49 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" t="n">
         <v>11</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
+        <v>6</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
         <v>9</v>
       </c>
-      <c r="J35" t="n">
-        <v>8</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>2</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1</v>
-      </c>
-      <c r="P35" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
-      <c r="R35" t="n">
-        <v>8</v>
-      </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3370,68 +3370,68 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
         <v>11</v>
       </c>
       <c r="I36" t="n">
+        <v>9</v>
+      </c>
+      <c r="J36" t="n">
         <v>8</v>
       </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
       <c r="K36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q36" t="n">
         <v>3</v>
       </c>
       <c r="R36" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T36" t="n">
         <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3452,29 +3452,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J37" t="n">
         <v>4</v>
@@ -3483,31 +3483,31 @@
         <v>1</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3534,68 +3534,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q38" t="n">
         <v>3</v>
       </c>
       <c r="R38" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3616,7 +3616,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3638,40 +3638,40 @@
         <v>8</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P39" t="n">
         <v>14</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3713,11 +3713,11 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I40" t="n">
         <v>8</v>
@@ -3726,7 +3726,7 @@
         <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -3738,10 +3738,10 @@
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="n">
         <v>2</v>
@@ -3780,68 +3780,68 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I41" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3862,32 +3862,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3896,28 +3896,28 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P42" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3944,7 +3944,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3959,17 +3959,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3981,31 +3981,31 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="Q43" t="n">
         <v>2</v>
       </c>
       <c r="R43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
         <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,35 +4026,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
         <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4066,22 +4066,22 @@
         <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,62 +4108,62 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>1</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4272,7 +4272,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -4287,23 +4287,23 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
         <v>0</v>
@@ -4312,22 +4312,22 @@
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
         <v>0</v>
@@ -4354,62 +4354,62 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R48" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,38 +4436,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4476,13 +4476,13 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" t="n">
         <v>2</v>
@@ -4518,35 +4518,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4555,13 +4555,13 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q50" t="n">
         <v>1</v>
@@ -4570,16 +4570,16 @@
         <v>2</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>15:52 - 2nd Half</t>
+          <t>10:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -4764,38 +4764,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4804,22 +4804,22 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4846,22 +4846,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,14 +4943,14 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Halftime</t>
+          <t>15:37 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -4965,25 +4965,25 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -5144,14 +5144,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
@@ -5170,40 +5170,40 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,14 +925,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J6" t="n">
         <v>6</v>
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q6" t="n">
         <v>6</v>
@@ -968,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1007,11 +1007,11 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I7" t="n">
         <v>19</v>
@@ -1041,13 +1041,13 @@
         <v>8</v>
       </c>
       <c r="R7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1691,7 +1691,7 @@
         <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1827,11 +1827,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
         <v>5</v>
@@ -1840,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="n">
         <v>2</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2073,14 +2073,14 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
+        <v>22</v>
+      </c>
+      <c r="I20" t="n">
         <v>20</v>
-      </c>
-      <c r="I20" t="n">
-        <v>18</v>
       </c>
       <c r="J20" t="n">
         <v>5</v>
@@ -2098,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
@@ -2155,17 +2155,17 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I21" t="n">
         <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2265,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
@@ -2386,12 +2386,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2401,23 +2401,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>18</v>
+      </c>
+      <c r="I24" t="n">
         <v>16</v>
       </c>
-      <c r="I24" t="n">
-        <v>18</v>
-      </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2426,28 +2426,28 @@
         <v>2</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R24" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T24" t="n">
         <v>7</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -2468,12 +2468,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2483,23 +2483,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
         <v>16</v>
       </c>
       <c r="I25" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -2508,28 +2508,28 @@
         <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="Q25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T25" t="n">
         <v>7</v>
       </c>
       <c r="U25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2647,17 +2647,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K27" t="n">
         <v>3</v>
@@ -2675,13 +2675,13 @@
         <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J33" t="n">
         <v>3</v>
@@ -3182,10 +3182,10 @@
         <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q38" t="n">
         <v>3</v>
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>9</v>
+      </c>
+      <c r="I39" t="n">
         <v>8</v>
       </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>8</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P40" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -3987,7 +3987,7 @@
         <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Q43" t="n">
         <v>2</v>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4518,35 +4518,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>0:13 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4555,31 +4555,31 @@
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4600,35 +4600,35 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>10:01 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4643,19 +4643,19 @@
         <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -4682,62 +4682,62 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P52" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4764,38 +4764,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4804,22 +4804,22 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4846,22 +4846,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4883,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4943,20 +4943,20 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>15:37 - 2nd Half</t>
+          <t>1:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
         <v>0</v>
@@ -4965,31 +4965,31 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P55" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -5148,7 +5148,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -5170,27 +5170,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,7 +761,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3631,7 +3631,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0:13 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -4151,7 +4151,7 @@
         <v>5</v>
       </c>
       <c r="P45" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V56"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,8 +433,8 @@
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="19" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="35" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -659,70 +659,70 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
       <c r="L3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
         <v>2</v>
@@ -746,17 +746,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -765,43 +765,43 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U4" t="n">
         <v>1</v>
@@ -818,27 +818,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -847,49 +847,49 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -900,7 +900,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -910,65 +910,65 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Pablo Tamba</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>-2</v>
       </c>
       <c r="I6" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>2</v>
@@ -987,17 +987,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1011,49 +1011,49 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>34</v>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R7" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="S7" t="n">
         <v>1</v>
       </c>
       <c r="T7" t="n">
+        <v>5</v>
+      </c>
+      <c r="U7" t="n">
         <v>6</v>
       </c>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
       <c r="V7" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1069,43 +1069,43 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1114,28 +1114,28 @@
         <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1146,27 +1146,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I9" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J9" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" t="n">
         <v>3</v>
       </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -1196,28 +1196,28 @@
         <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -1228,17 +1228,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1257,19 +1257,19 @@
         </is>
       </c>
       <c r="H10" t="n">
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
         <v>19</v>
       </c>
-      <c r="I10" t="n">
-        <v>18</v>
-      </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1278,28 +1278,28 @@
         <v>2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
         <v>34</v>
       </c>
       <c r="Q10" t="n">
+        <v>8</v>
+      </c>
+      <c r="R10" t="n">
+        <v>21</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
       </c>
-      <c r="R10" t="n">
-        <v>10</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>7</v>
-      </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1320,17 +1320,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1339,49 +1339,49 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1392,78 +1392,78 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1474,78 +1474,78 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1556,78 +1556,78 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1638,27 +1638,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1667,49 +1667,49 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="I15" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="R15" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T15" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1749,49 +1749,49 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R16" t="n">
+        <v>10</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="n">
         <v>7</v>
       </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1802,17 +1802,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1831,49 +1831,49 @@
         </is>
       </c>
       <c r="H17" t="n">
+        <v>9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="I17" t="n">
-        <v>5</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
         <v>3</v>
       </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>2</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8</v>
-      </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1884,7 +1884,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1894,68 +1894,68 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1966,7 +1966,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1976,32 +1976,32 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2058,17 +2058,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2077,49 +2077,49 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
+        <v>2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="n">
         <v>3</v>
       </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
         <v>9</v>
       </c>
-      <c r="R20" t="n">
-        <v>15</v>
-      </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
         <v>6</v>
       </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2159,49 +2159,49 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
         <v>4</v>
       </c>
       <c r="P21" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
       </c>
       <c r="R21" t="n">
+        <v>14</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
         <v>7</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,17 +2222,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2241,49 +2241,49 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
         <v>4</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
       </c>
       <c r="P22" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="Q22" t="n">
         <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,35 +2304,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2341,25 +2341,25 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2386,68 +2386,68 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I24" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Q24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2487,13 +2487,13 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2505,31 +2505,31 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T25" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2540,17 +2540,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2569,49 +2569,49 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
+        <v>4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
       <c r="V26" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I27" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
         <v>5</v>
       </c>
-      <c r="K27" t="n">
-        <v>3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>7</v>
-      </c>
-      <c r="R27" t="n">
-        <v>10</v>
-      </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2733,49 +2733,49 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
         <v>8</v>
       </c>
-      <c r="J28" t="n">
-        <v>11</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>27</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>3</v>
-      </c>
-      <c r="R28" t="n">
-        <v>12</v>
-      </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2786,27 +2786,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
+        <v>21</v>
+      </c>
+      <c r="I29" t="n">
+        <v>22</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q29" t="n">
         <v>7</v>
       </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>4</v>
-      </c>
-      <c r="P29" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30">
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,17 +2878,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2897,49 +2897,49 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
         <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2</v>
-      </c>
-      <c r="V30" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,68 +2960,68 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:19 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>3</v>
       </c>
-      <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1</v>
-      </c>
-      <c r="P31" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>6</v>
-      </c>
       <c r="S31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -3032,27 +3032,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,10 +3061,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
         <v>5</v>
@@ -3073,37 +3073,37 @@
         <v>3</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R32" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="S32" t="n">
         <v>2</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U32" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,27 +3114,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3146,46 +3146,46 @@
         <v>19</v>
       </c>
       <c r="I33" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J33" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P33" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q33" t="n">
         <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3196,27 +3196,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3225,13 +3225,13 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I34" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3240,34 +3240,34 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Q34" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3278,22 +3278,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3307,49 +3307,49 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P35" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R35" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S35" t="n">
         <v>1</v>
       </c>
       <c r="T35" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,17 +3370,17 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3389,16 +3389,16 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J36" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
         <v>2</v>
@@ -3407,28 +3407,28 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P36" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>4</v>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,12 +3452,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3471,43 +3471,43 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I37" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,37 +3553,37 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>10</v>
+      </c>
+      <c r="I38" t="n">
         <v>9</v>
       </c>
-      <c r="I38" t="n">
-        <v>7</v>
-      </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P38" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3616,35 +3616,35 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3656,28 +3656,28 @@
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="Q39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3688,27 +3688,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,49 +3717,49 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="Q40" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41">
@@ -3770,17 +3770,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I41" t="n">
         <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q41" t="n">
         <v>3</v>
       </c>
       <c r="R41" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="S41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42">
@@ -3852,22 +3852,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3881,43 +3881,43 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I42" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="Q42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R42" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3966,46 +3966,46 @@
         <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
+        <v>2</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>3</v>
       </c>
-      <c r="O43" t="n">
-        <v>3</v>
-      </c>
-      <c r="P43" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>2</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U43" t="n">
         <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4026,32 +4026,32 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, February 14th at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4063,25 +4063,25 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4127,43 +4127,43 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J46" t="n">
+        <v>5</v>
+      </c>
+      <c r="K46" t="n">
         <v>3</v>
       </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,16 +4291,16 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>19</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
         <v>3</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1</v>
-      </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>2</v>
@@ -4315,25 +4315,25 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,43 +4373,43 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>14</v>
+      </c>
+      <c r="I48" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
         <v>3</v>
       </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
       <c r="P48" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="Q48" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R48" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4455,13 +4455,13 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -4470,34 +4470,34 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>1</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="Q49" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,49 +4537,49 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>1</v>
       </c>
       <c r="P50" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q50" t="n">
         <v>3</v>
       </c>
-      <c r="Q50" t="n">
-        <v>0</v>
-      </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,43 +4619,43 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U51" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>1</v>
@@ -4713,37 +4713,37 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q52" t="n">
         <v>3</v>
       </c>
-      <c r="P52" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
       <c r="R52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S52" t="n">
         <v>0</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,16 +4783,16 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
         <v>0</v>
@@ -4804,28 +4804,28 @@
         <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4846,17 +4846,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -4865,37 +4865,37 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,49 +4947,49 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q55" t="n">
         <v>3</v>
       </c>
-      <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>2</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4</v>
-      </c>
-      <c r="P55" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>1</v>
-      </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5010,67 +5010,2363 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+      <c r="I56" t="n">
+        <v>9</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="n">
+        <v>5</v>
+      </c>
+      <c r="P56" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>7</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Jasper Johnson</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+      <c r="I58" t="n">
+        <v>6</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Achor Achor</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 6:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>4</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>1</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Bishop Boswell</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>0</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Brandon Garrison</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>2</v>
+      </c>
+      <c r="O61" t="n">
+        <v>5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Jalen Reece</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Mazi Mosley</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
+      </c>
+      <c r="P63" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>3</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>4</v>
+      </c>
+      <c r="P64" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Amari Evans</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Ethan Burg</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Isaiah Brown</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>FLA</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0</v>
+      </c>
+      <c r="P67" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Robert Miller III</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>2</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>DeWayne Brown II</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0</v>
+      </c>
+      <c r="P70" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>1</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Rashad King</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Trent Noah</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>UK@FLA</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 6:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Jacari Lane</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="n">
+        <v>1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>0</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Jake Wilkins</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>2</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>TA&amp;M@VAN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>0</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 6:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>0</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Sat, February 14th at 6:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1</v>
+      </c>
+      <c r="S80" t="n">
+        <v>0</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4</v>
+      </c>
+      <c r="P81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>1</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>0</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>13:19 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>TA&amp;M@VAN</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H56" t="n">
+      <c r="H84" t="n">
         <v>-3</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>1</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
         <v>5</v>
       </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>2</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5157,14 +7453,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -5174,23 +7470,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -5200,10 +7496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,10 +431,10 @@
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,18 +679,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>10</v>
       </c>
       <c r="I3" t="n">
+        <v>8</v>
+      </c>
+      <c r="J3" t="n">
         <v>6</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
       <c r="K3" t="n">
         <v>1</v>
       </c>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
         <v>2</v>
@@ -925,14 +925,14 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
         <v>1</v>
@@ -944,34 +944,34 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
         <v>4</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -982,78 +982,78 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S8" t="n">
         <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1151,73 +1151,73 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1238,17 +1238,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1257,40 +1257,40 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
+        <v>3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>10</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>21</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
       </c>
       <c r="T10" t="n">
         <v>6</v>
@@ -1299,7 +1299,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1320,12 +1320,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1339,19 +1339,19 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1360,28 +1360,28 @@
         <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1402,56 +1402,56 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1566,12 +1566,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Malik Dia</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1581,20 +1581,20 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1638,78 +1638,78 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
         <v>8</v>
       </c>
-      <c r="R15" t="n">
-        <v>14</v>
-      </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1749,49 +1749,49 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I16" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R16" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
       </c>
       <c r="T16" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1807,22 +1807,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1831,49 +1831,49 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I17" t="n">
+        <v>18</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>6</v>
+      </c>
+      <c r="R17" t="n">
+        <v>10</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="n">
         <v>7</v>
       </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1</v>
-      </c>
-      <c r="P17" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1</v>
-      </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1894,32 +1894,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1934,22 +1934,22 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1976,12 +1976,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1991,17 +1991,17 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2048,78 +2048,78 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Alex Condon</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2140,12 +2140,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Alex Condon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2159,49 +2159,49 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
         <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q21" t="n">
         <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2241,37 +2241,37 @@
         </is>
       </c>
       <c r="H22" t="n">
+        <v>7</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
         <v>5</v>
       </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3</v>
+      </c>
+      <c r="O22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
       <c r="P22" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
+        <v>10</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>3</v>
+      </c>
+      <c r="U23" t="n">
         <v>4</v>
       </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2381,17 +2381,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2401,53 +2401,53 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="Q25" t="n">
         <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2540,78 +2540,78 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J26" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2622,42 +2622,42 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2672,28 +2672,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
         <v>4</v>
       </c>
-      <c r="R27" t="n">
-        <v>5</v>
-      </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -2714,17 +2714,17 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2733,49 +2733,49 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2791,73 +2791,73 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Xaivian Lee</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2873,17 +2873,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2897,49 +2897,49 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,68 +2960,68 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Xaivian Lee</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P31" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3032,17 +3032,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3061,49 +3061,49 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="Q32" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R32" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33">
@@ -3114,78 +3114,78 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J33" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -3206,12 +3206,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3225,49 +3225,49 @@
         </is>
       </c>
       <c r="H34" t="n">
+        <v>22</v>
+      </c>
+      <c r="I34" t="n">
+        <v>20</v>
+      </c>
+      <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q34" t="n">
         <v>9</v>
       </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2</v>
-      </c>
-      <c r="P34" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2</v>
-      </c>
       <c r="R34" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3288,17 +3288,17 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3307,49 +3307,49 @@
         </is>
       </c>
       <c r="H35" t="n">
+        <v>19</v>
+      </c>
+      <c r="I35" t="n">
+        <v>10</v>
+      </c>
+      <c r="J35" t="n">
+        <v>11</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>2</v>
+      </c>
+      <c r="O35" t="n">
         <v>4</v>
       </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="P35" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q35" t="n">
         <v>4</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1</v>
-      </c>
-      <c r="O35" t="n">
-        <v>5</v>
-      </c>
-      <c r="P35" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2</v>
-      </c>
       <c r="R35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3389,49 +3389,49 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I36" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P36" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R36" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3447,22 +3447,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3471,16 +3471,16 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3489,22 +3489,22 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P37" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S37" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T37" t="n">
         <v>7</v>
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mouhamed Dioubate</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="I38" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J38" t="n">
+        <v>4</v>
+      </c>
+      <c r="K38" t="n">
         <v>5</v>
       </c>
-      <c r="K38" t="n">
-        <v>2</v>
-      </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P38" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
@@ -3616,32 +3616,32 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3653,25 +3653,25 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3688,27 +3688,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,49 +3717,49 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
         <v>5</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>3</v>
       </c>
       <c r="P40" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3770,66 +3770,66 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H41" t="n">
+        <v>3</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
         <v>9</v>
       </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>2</v>
-      </c>
-      <c r="N41" t="n">
-        <v>1</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>27</v>
-      </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3881,34 +3881,34 @@
         </is>
       </c>
       <c r="H42" t="n">
+        <v>20</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2</v>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q42" t="n">
         <v>7</v>
-      </c>
-      <c r="I42" t="n">
-        <v>4</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
-      <c r="K42" t="n">
-        <v>6</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>4</v>
-      </c>
-      <c r="P42" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>2</v>
       </c>
       <c r="R42" t="n">
         <v>10</v>
@@ -3917,13 +3917,13 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -3939,17 +3939,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -3963,37 +3963,37 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -4021,67 +4021,67 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4127,49 +4127,49 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O45" t="n">
         <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
         <v>4</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4190,68 +4190,68 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="I46" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4262,7 +4262,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,34 +4291,34 @@
         </is>
       </c>
       <c r="H47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
         <v>19</v>
       </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3</v>
-      </c>
-      <c r="L47" t="n">
-        <v>2</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>20</v>
-      </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R47" t="n">
         <v>6</v>
@@ -4327,13 +4327,13 @@
         <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,17 +4354,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -4373,49 +4373,49 @@
         </is>
       </c>
       <c r="H48" t="n">
+        <v>25</v>
+      </c>
+      <c r="I48" t="n">
+        <v>23</v>
+      </c>
+      <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>8</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
+        <v>4</v>
+      </c>
+      <c r="U48" t="n">
+        <v>11</v>
+      </c>
+      <c r="V48" t="n">
         <v>14</v>
-      </c>
-      <c r="I48" t="n">
-        <v>19</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>3</v>
-      </c>
-      <c r="P48" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>7</v>
-      </c>
-      <c r="R48" t="n">
-        <v>13</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
-      <c r="T48" t="n">
-        <v>11</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4436,17 +4436,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -4455,49 +4455,49 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I49" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="Q49" t="n">
         <v>4</v>
       </c>
       <c r="R49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S49" t="n">
         <v>1</v>
       </c>
       <c r="T49" t="n">
+        <v>2</v>
+      </c>
+      <c r="U49" t="n">
         <v>4</v>
       </c>
-      <c r="U49" t="n">
-        <v>2</v>
-      </c>
       <c r="V49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -4518,17 +4518,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -4537,49 +4537,49 @@
         </is>
       </c>
       <c r="H50" t="n">
+        <v>14</v>
+      </c>
+      <c r="I50" t="n">
+        <v>19</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>7</v>
+      </c>
+      <c r="R50" t="n">
+        <v>13</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="n">
         <v>11</v>
       </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1</v>
-      </c>
-      <c r="P50" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>8</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1</v>
-      </c>
-      <c r="T50" t="n">
-        <v>3</v>
-      </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,16 +4619,16 @@
         </is>
       </c>
       <c r="H51" t="n">
+        <v>12</v>
+      </c>
+      <c r="I51" t="n">
         <v>11</v>
       </c>
-      <c r="I51" t="n">
-        <v>10</v>
-      </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q51" t="n">
         <v>4</v>
@@ -4652,16 +4652,16 @@
         <v>9</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
         <v>4</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="H52" t="n">
+        <v>11</v>
+      </c>
+      <c r="I52" t="n">
         <v>9</v>
       </c>
-      <c r="I52" t="n">
-        <v>7</v>
-      </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P52" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q52" t="n">
         <v>3</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4783,49 +4783,49 @@
         </is>
       </c>
       <c r="H53" t="n">
+        <v>11</v>
+      </c>
+      <c r="I53" t="n">
+        <v>10</v>
+      </c>
+      <c r="J53" t="n">
+        <v>4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
         <v>9</v>
       </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2</v>
-      </c>
-      <c r="P53" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
-      <c r="R53" t="n">
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
         <v>4</v>
       </c>
-      <c r="S53" t="n">
-        <v>0</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2</v>
-      </c>
       <c r="U53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4846,68 +4846,68 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
         <v>4</v>
       </c>
-      <c r="K54" t="n">
-        <v>1</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="n">
-        <v>1</v>
-      </c>
-      <c r="O54" t="n">
+      <c r="V54" t="n">
         <v>4</v>
-      </c>
-      <c r="P54" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>0</v>
-      </c>
-      <c r="U54" t="n">
-        <v>0</v>
-      </c>
-      <c r="V54" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4928,68 +4928,68 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q55" t="n">
         <v>4</v>
       </c>
-      <c r="P55" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
       <c r="R55" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>2</v>
       </c>
       <c r="T55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K56" t="n">
         <v>0</v>
@@ -5044,34 +5044,34 @@
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -5092,32 +5092,32 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -5129,31 +5129,31 @@
         <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
         <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,16 +5193,16 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
@@ -5217,25 +5217,25 @@
         <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="Q58" t="n">
         <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
         <v>2</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
@@ -5256,50 +5256,50 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
+        <v>8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
         <v>4</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
         <v>4</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
       <c r="P59" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="Q59" t="n">
         <v>1</v>
@@ -5308,16 +5308,16 @@
         <v>1</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5338,62 +5338,62 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
+        <v>8</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>2</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>4</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>2</v>
-      </c>
       <c r="P60" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U60" t="n">
         <v>0</v>
@@ -5420,17 +5420,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -5439,22 +5439,22 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
@@ -5463,19 +5463,19 @@
         <v>5</v>
       </c>
       <c r="P61" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
         <v>0</v>
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5517,53 +5517,53 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>6</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
+      </c>
+      <c r="P62" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
         <v>4</v>
       </c>
-      <c r="I62" t="n">
-        <v>5</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5584,33 +5584,33 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
+        <v>6</v>
+      </c>
+      <c r="I63" t="n">
+        <v>7</v>
+      </c>
+      <c r="J63" t="n">
         <v>4</v>
       </c>
-      <c r="I63" t="n">
-        <v>6</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
@@ -5621,13 +5621,13 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P63" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q63" t="n">
         <v>2</v>
@@ -5636,16 +5636,16 @@
         <v>4</v>
       </c>
       <c r="S63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,38 +5666,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -5706,19 +5706,19 @@
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T64" t="n">
         <v>1</v>
@@ -5748,35 +5748,35 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>0</v>
@@ -5785,25 +5785,25 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,32 +5830,32 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
         <v>1</v>
@@ -5882,10 +5882,10 @@
         <v>1</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,38 +5912,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
@@ -5952,16 +5952,16 @@
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,43 +6013,43 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P68" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6076,38 +6076,38 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -6116,22 +6116,22 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P69" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
         <v>0</v>
@@ -6158,12 +6158,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6173,32 +6173,32 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
         <v>1</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P70" t="n">
         <v>6</v>
@@ -6216,10 +6216,10 @@
         <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,35 +6240,35 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6280,16 +6280,16 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
@@ -6322,12 +6322,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6337,23 +6337,23 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" t="n">
         <v>0</v>
@@ -6362,28 +6362,28 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P72" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
       </c>
       <c r="T72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -6404,12 +6404,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -6423,7 +6423,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -6432,10 +6432,10 @@
         <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
@@ -6444,16 +6444,16 @@
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S73" t="n">
         <v>0</v>
@@ -6486,35 +6486,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -6523,25 +6523,25 @@
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U74" t="n">
         <v>0</v>
@@ -6568,35 +6568,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -6608,22 +6608,22 @@
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -6650,17 +6650,17 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -6669,43 +6669,43 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P76" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U76" t="n">
         <v>0</v>
@@ -6732,62 +6732,62 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>6:21 - 1st Half</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S77" t="n">
         <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
         <v>0</v>
@@ -6814,32 +6814,32 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
         <v>0</v>
@@ -6857,19 +6857,19 @@
         <v>0</v>
       </c>
       <c r="P78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
       </c>
       <c r="R78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S78" t="n">
         <v>0</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U78" t="n">
         <v>0</v>
@@ -6896,32 +6896,32 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -6936,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -6978,35 +6978,35 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
         <v>0</v>
@@ -7018,22 +7018,22 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P80" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="Q80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U80" t="n">
         <v>0</v>
@@ -7060,7 +7060,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -7079,19 +7079,19 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
         <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7100,10 +7100,10 @@
         <v>2</v>
       </c>
       <c r="O81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P81" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q81" t="n">
         <v>1</v>
@@ -7112,16 +7112,16 @@
         <v>4</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U81" t="n">
         <v>0</v>
       </c>
       <c r="V81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7142,26 +7142,26 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>18:27 - 1st Half</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -7179,25 +7179,25 @@
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
       </c>
       <c r="R82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U82" t="n">
         <v>0</v>
@@ -7224,32 +7224,32 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13:19 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K83" t="n">
         <v>0</v>
@@ -7267,19 +7267,19 @@
         <v>0</v>
       </c>
       <c r="P83" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
@@ -7306,67 +7306,723 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Kanon Catchings</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>UGA@OU</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="n">
+        <v>4</v>
+      </c>
+      <c r="P85" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>King Grace</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18:27 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Troy Henderson</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>TENN</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>6:21 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18:27 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>0</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>18:27 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>MSST@MISS</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18:27 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>-3</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Tyler Harris</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>VAN</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>TA&amp;M@VAN</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="H91" t="n">
         <v>-3</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0</v>
-      </c>
-      <c r="N84" t="n">
-        <v>1</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>0</v>
+      </c>
+      <c r="P91" t="n">
         <v>5</v>
       </c>
-      <c r="Q84" t="n">
-        <v>0</v>
-      </c>
-      <c r="R84" t="n">
-        <v>2</v>
-      </c>
-      <c r="S84" t="n">
-        <v>0</v>
-      </c>
-      <c r="T84" t="n">
-        <v>2</v>
-      </c>
-      <c r="U84" t="n">
-        <v>0</v>
-      </c>
-      <c r="V84" t="n">
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-02-14</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>LSU@TENN</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>6:21 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>-4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
+      </c>
+      <c r="P92" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
         <v>0</v>
       </c>
     </row>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="35" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -761,20 +761,20 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -789,25 +789,25 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -843,17 +843,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -886,10 +886,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -925,17 +925,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -947,31 +947,31 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -992,68 +992,68 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Marcus Hill</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O7" t="n">
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1074,68 +1074,68 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Billy Richmond III</t>
+          <t>Marcus Hill</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -1417,11 +1417,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1484,35 +1484,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Thomas Haugh</t>
+          <t>KeShawn Murphy</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I13" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1524,28 +1524,28 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="n">
+        <v>9</v>
+      </c>
+      <c r="R13" t="n">
+        <v>15</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
         <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>12</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1</v>
-      </c>
-      <c r="T13" t="n">
-        <v>5</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6</v>
-      </c>
-      <c r="V13" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Thomas Haugh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,49 +1585,49 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I14" t="n">
+        <v>17</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
         <v>12</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>5</v>
+      </c>
+      <c r="U14" t="n">
         <v>6</v>
       </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4</v>
-      </c>
-      <c r="R14" t="n">
-        <v>9</v>
-      </c>
-      <c r="S14" t="n">
-        <v>4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1648,68 +1648,68 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>KeShawn Murphy</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>14</v>
+      </c>
+      <c r="I15" t="n">
+        <v>12</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2</v>
+      </c>
+      <c r="K15" t="n">
         <v>6</v>
       </c>
-      <c r="I15" t="n">
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="n">
         <v>8</v>
       </c>
-      <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
-      <c r="R15" t="n">
-        <v>6</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1745,41 +1745,41 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
+        <v>13</v>
+      </c>
+      <c r="I16" t="n">
         <v>6</v>
       </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1827,47 +1827,47 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
         <v>9</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2</v>
-      </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2058,68 +2058,68 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="n">
         <v>7</v>
       </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2</v>
-      </c>
-      <c r="P20" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>3</v>
-      </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2140,17 +2140,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Denzel Aberdeen</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2159,49 +2159,49 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q21" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -2222,12 +2222,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Micah Handlogten</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2241,19 +2241,19 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -2262,28 +2262,28 @@
         <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P22" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="Q22" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="R22" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Felix Okpara</t>
+          <t>Micah Handlogten</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2323,37 +2323,37 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="Q23" t="n">
         <v>1</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2386,50 +2386,50 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Felix Okpara</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="Q24" t="n">
         <v>1</v>
@@ -2441,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2647,20 +2647,20 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2669,25 +2669,25 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
         <v>1</v>
       </c>
       <c r="P27" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="Q27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2729,42 +2729,42 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q28" t="n">
         <v>5</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
+      <c r="R28" t="n">
         <v>9</v>
       </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3057,11 +3057,11 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I32" t="n">
         <v>6</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q32" t="n">
         <v>2</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
@@ -3288,38 +3288,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Otega Oweh</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3328,28 +3328,28 @@
         <v>3</v>
       </c>
       <c r="O35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R35" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -3370,12 +3370,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Boogie Fland</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3389,37 +3389,37 @@
         </is>
       </c>
       <c r="H36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
         <v>5</v>
       </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4</v>
-      </c>
       <c r="K36" t="n">
         <v>2</v>
       </c>
       <c r="L36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P36" t="n">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="Q36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3428,10 +3428,10 @@
         <v>3</v>
       </c>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37">
@@ -3452,68 +3452,68 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Boogie Fland</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -3698,12 +3698,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Houston Mallette</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -3713,23 +3713,23 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -3738,22 +3738,22 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S40" t="n">
         <v>1</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Houston Mallette</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3795,47 +3795,47 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3862,29 +3862,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
@@ -3905,25 +3905,25 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -3944,35 +3944,35 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3984,28 +3984,28 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P43" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -4026,29 +4026,29 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4066,28 +4066,28 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -4108,68 +4108,68 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>J.P. Estrella</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I45" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>8</v>
+      </c>
+      <c r="R45" t="n">
+        <v>11</v>
+      </c>
+      <c r="S45" t="n">
+        <v>6</v>
+      </c>
+      <c r="T45" t="n">
         <v>9</v>
       </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>4</v>
-      </c>
-      <c r="P45" t="n">
-        <v>28</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>7</v>
-      </c>
-      <c r="R45" t="n">
-        <v>9</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>J.P. Estrella</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4212,19 +4212,19 @@
         <v>20</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>1</v>
@@ -4233,13 +4233,13 @@
         <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47">
@@ -4272,68 +4272,68 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I47" t="n">
         <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P47" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
@@ -4369,47 +4369,47 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>14</v>
+      </c>
+      <c r="I48" t="n">
         <v>8</v>
       </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
       <c r="J48" t="n">
+        <v>9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>4</v>
+      </c>
+      <c r="P48" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
         <v>5</v>
-      </c>
-      <c r="K48" t="n">
-        <v>1</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1</v>
-      </c>
-      <c r="P48" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>2</v>
-      </c>
-      <c r="T48" t="n">
-        <v>4</v>
       </c>
       <c r="U48" t="n">
         <v>0</v>
@@ -4779,17 +4779,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>1</v>
@@ -4801,19 +4801,19 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
         <v>6</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1</v>
-      </c>
-      <c r="R53" t="n">
-        <v>4</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -4861,17 +4861,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -4886,28 +4886,28 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -5092,68 +5092,68 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I57" t="n">
+        <v>11</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q57" t="n">
         <v>5</v>
       </c>
-      <c r="J57" t="n">
-        <v>4</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>2</v>
-      </c>
-      <c r="P57" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>2</v>
-      </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,17 +5174,17 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5193,49 +5193,49 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I58" t="n">
         <v>5</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P58" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q58" t="n">
         <v>2</v>
       </c>
       <c r="R58" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5256,35 +5256,35 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>2</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
@@ -5293,25 +5293,25 @@
         <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P59" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
         <v>8</v>
       </c>
-      <c r="Q59" t="n">
-        <v>0</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -5420,32 +5420,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I61" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K61" t="n">
         <v>5</v>
@@ -5457,31 +5457,31 @@
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P61" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R61" t="n">
         <v>12</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -5502,35 +5502,35 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
+        <v>18</v>
+      </c>
+      <c r="I62" t="n">
         <v>16</v>
       </c>
-      <c r="I62" t="n">
-        <v>12</v>
-      </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
         <v>2</v>
@@ -5539,31 +5539,31 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P62" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="Q62" t="n">
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63">
@@ -5681,20 +5681,20 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
         <v>1</v>
@@ -5703,31 +5703,31 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65">
@@ -5927,17 +5927,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I67" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K67" t="n">
         <v>2</v>
@@ -5952,22 +5952,22 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P67" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="Q67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R67" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -5994,68 +5994,68 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Aiden Sherrell</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
         <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -6095,49 +6095,49 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J69" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K69" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N69" t="n">
         <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -6158,68 +6158,68 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Aiden Sherrell</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="n">
         <v>3</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N70" t="n">
         <v>1</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P70" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="Q70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R70" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,68 +6240,68 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
+        <v>16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>19</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>7</v>
+      </c>
+      <c r="R71" t="n">
         <v>13</v>
       </c>
-      <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>8</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>4</v>
-      </c>
-      <c r="P71" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>1</v>
-      </c>
-      <c r="R71" t="n">
-        <v>2</v>
-      </c>
       <c r="S71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="U71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
@@ -6322,35 +6322,35 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I72" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
         <v>0</v>
@@ -6362,28 +6362,28 @@
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="Q72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -6486,12 +6486,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6501,53 +6501,53 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74" t="n">
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R74" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6568,12 +6568,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -6583,20 +6583,20 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -6605,13 +6605,13 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>1</v>
       </c>
       <c r="P75" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -7470,62 +7470,62 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>10</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
         <v>15</v>
       </c>
       <c r="Q86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U86" t="n">
         <v>0</v>
@@ -7552,32 +7552,32 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
         <v>7</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
@@ -7586,22 +7586,22 @@
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q87" t="n">
         <v>3</v>
       </c>
       <c r="R87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -7634,17 +7634,17 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -7653,49 +7653,49 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K88" t="n">
         <v>2</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O88" t="n">
         <v>2</v>
       </c>
       <c r="P88" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="Q88" t="n">
         <v>2</v>
       </c>
       <c r="R88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -7716,17 +7716,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7735,13 +7735,13 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I89" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -7750,13 +7750,13 @@
         <v>0</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
         <v>18</v>
@@ -7765,19 +7765,19 @@
         <v>3</v>
       </c>
       <c r="R89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7817,49 +7817,49 @@
         </is>
       </c>
       <c r="H90" t="n">
+        <v>9</v>
+      </c>
+      <c r="I90" t="n">
         <v>8</v>
       </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
       <c r="J90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N90" t="n">
         <v>1</v>
       </c>
       <c r="O90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P90" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="Q90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
@@ -7880,17 +7880,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7908,34 +7908,34 @@
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P91" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q91" t="n">
         <v>3</v>
       </c>
       <c r="R91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S91" t="n">
         <v>2</v>
       </c>
       <c r="T91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,17 +7962,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7990,28 +7990,28 @@
         <v>4</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O92" t="n">
         <v>4</v>
       </c>
       <c r="P92" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q92" t="n">
         <v>1</v>
       </c>
       <c r="R92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
@@ -8044,68 +8044,68 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>8</v>
       </c>
       <c r="I93" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P93" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="Q93" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
@@ -8126,17 +8126,17 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -8145,13 +8145,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>2</v>
@@ -8163,31 +8163,31 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P94" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Q94" t="n">
         <v>3</v>
       </c>
       <c r="R94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U94" t="n">
         <v>0</v>
       </c>
       <c r="V94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8227,37 +8227,37 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P95" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
@@ -8269,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="V95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8309,13 +8309,13 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
@@ -8327,19 +8327,19 @@
         <v>0</v>
       </c>
       <c r="N96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P96" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S96" t="n">
         <v>1</v>
@@ -8348,10 +8348,10 @@
         <v>2</v>
       </c>
       <c r="U96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,17 +8372,17 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -8391,19 +8391,19 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J97" t="n">
         <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="n">
         <v>0</v>
@@ -8412,28 +8412,28 @@
         <v>1</v>
       </c>
       <c r="O97" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P97" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R97" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U97" t="n">
         <v>0</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8473,13 +8473,13 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I98" t="n">
         <v>6</v>
       </c>
       <c r="J98" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K98" t="n">
         <v>0</v>
@@ -8494,28 +8494,28 @@
         <v>1</v>
       </c>
       <c r="O98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P98" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Q98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8558,13 +8558,13 @@
         <v>6</v>
       </c>
       <c r="I99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
@@ -8573,31 +8573,31 @@
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P99" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q99" t="n">
         <v>2</v>
       </c>
       <c r="R99" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8640,25 +8640,25 @@
         <v>6</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
         <v>3</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
       </c>
       <c r="M100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P100" t="n">
         <v>22</v>
@@ -8667,13 +8667,13 @@
         <v>1</v>
       </c>
       <c r="R100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
@@ -8700,17 +8700,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -8719,16 +8719,16 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J101" t="n">
         <v>1</v>
       </c>
       <c r="K101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>0</v>
@@ -8740,28 +8740,28 @@
         <v>1</v>
       </c>
       <c r="O101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P101" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8801,49 +8801,49 @@
         </is>
       </c>
       <c r="H102" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>6</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>2</v>
+      </c>
+      <c r="R102" t="n">
+        <v>6</v>
+      </c>
+      <c r="S102" t="n">
+        <v>2</v>
+      </c>
+      <c r="T102" t="n">
         <v>5</v>
       </c>
-      <c r="I102" t="n">
-        <v>3</v>
-      </c>
-      <c r="J102" t="n">
-        <v>2</v>
-      </c>
-      <c r="K102" t="n">
-        <v>2</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>1</v>
-      </c>
-      <c r="P102" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>0</v>
-      </c>
-      <c r="R102" t="n">
-        <v>1</v>
-      </c>
-      <c r="S102" t="n">
-        <v>0</v>
-      </c>
-      <c r="T102" t="n">
-        <v>0</v>
-      </c>
       <c r="U102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8883,43 +8883,43 @@
         </is>
       </c>
       <c r="H103" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
         <v>3</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O103" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P103" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,68 +8946,68 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
         <v>1</v>
       </c>
       <c r="K104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M104" t="n">
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q104" t="n">
         <v>1</v>
       </c>
       <c r="R104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -9028,47 +9028,47 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J105" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
         <v>11</v>
@@ -9086,10 +9086,10 @@
         <v>0</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
@@ -9110,59 +9110,59 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K106" t="n">
         <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O106" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="Q106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" t="n">
         <v>1</v>
       </c>
       <c r="S106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T106" t="n">
         <v>1</v>
@@ -9192,22 +9192,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -9217,25 +9217,25 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P107" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -9274,38 +9274,38 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -9317,19 +9317,19 @@
         <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U108" t="n">
         <v>0</v>
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9375,19 +9375,19 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>2</v>
       </c>
       <c r="L109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -9396,22 +9396,22 @@
         <v>0</v>
       </c>
       <c r="O109" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P109" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
       </c>
       <c r="R109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S109" t="n">
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,35 +9438,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -9475,31 +9475,31 @@
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P110" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="Q110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R110" t="n">
         <v>3</v>
       </c>
       <c r="S110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -9520,35 +9520,35 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H111" t="n">
         <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L111" t="n">
         <v>0</v>
@@ -9560,22 +9560,22 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P111" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,62 +9602,62 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O112" t="n">
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="Q112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R112" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -9684,35 +9684,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -9721,25 +9721,25 @@
         <v>0</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T113" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U113" t="n">
         <v>0</v>
@@ -9766,12 +9766,12 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -9781,17 +9781,17 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K114" t="n">
         <v>0</v>
@@ -9800,22 +9800,22 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P114" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
@@ -9848,32 +9848,32 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115" t="n">
         <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K115" t="n">
         <v>0</v>
@@ -9885,13 +9885,13 @@
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q115" t="n">
         <v>1</v>
@@ -9930,41 +9930,41 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -9973,19 +9973,19 @@
         <v>1</v>
       </c>
       <c r="P116" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
       </c>
       <c r="T116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -10027,11 +10027,11 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -10040,7 +10040,7 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -10052,10 +10052,10 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -10094,56 +10094,56 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
         <v>0</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="Q118" t="n">
         <v>1</v>
       </c>
       <c r="R118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
@@ -10152,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Max Smith</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -10195,7 +10195,7 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -10210,16 +10210,16 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
       </c>
       <c r="O119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P119" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -10258,62 +10258,62 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
         <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M120" t="n">
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O120" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P120" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R120" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
@@ -10340,29 +10340,29 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H121" t="n">
         <v>1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="n">
         <v>1</v>
@@ -10374,34 +10374,34 @@
         <v>0</v>
       </c>
       <c r="M121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P121" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
       </c>
       <c r="R121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -10422,22 +10422,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -10462,10 +10462,10 @@
         <v>0</v>
       </c>
       <c r="O122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P122" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q122" t="n">
         <v>1</v>
@@ -10504,17 +10504,17 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Max Smith</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -10529,7 +10529,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
         <v>0</v>
@@ -10538,16 +10538,16 @@
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -10586,12 +10586,12 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -10601,32 +10601,32 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P124" t="n">
         <v>5</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -10668,35 +10668,35 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L125" t="n">
         <v>1</v>
@@ -10705,25 +10705,25 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P125" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="Q125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R125" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
@@ -10750,17 +10750,17 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -10769,16 +10769,16 @@
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L126" t="n">
         <v>0</v>
@@ -10793,19 +10793,19 @@
         <v>1</v>
       </c>
       <c r="P126" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="Q126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R126" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U126" t="n">
         <v>0</v>
@@ -10832,62 +10832,62 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
       <c r="L127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O127" t="n">
         <v>3</v>
       </c>
       <c r="P127" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -10914,22 +10914,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -10942,34 +10942,34 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P128" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,17 +10996,17 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -11018,13 +11018,13 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P129" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="Q129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R129" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T129" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,68 +11078,68 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P130" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R130" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -11160,17 +11160,17 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -11185,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131" t="n">
         <v>0</v>
@@ -11197,13 +11197,13 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
       </c>
       <c r="P131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -11242,22 +11242,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -11273,19 +11273,19 @@
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
       </c>
       <c r="P132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -11324,29 +11324,29 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Niko Bundalo</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -11367,19 +11367,19 @@
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S133" t="n">
         <v>0</v>
       </c>
       <c r="T133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U133" t="n">
         <v>0</v>
@@ -11406,32 +11406,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -11449,19 +11449,19 @@
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R134" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,22 +11488,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11652,35 +11652,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>17:33 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
         <v>-1</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -11689,31 +11689,31 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O137" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T137" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -11734,22 +11734,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>12:42 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -11768,28 +11768,28 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
       </c>
       <c r="O138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P138" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
@@ -11816,17 +11816,17 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -11838,13 +11838,13 @@
         <v>-1</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L139" t="n">
         <v>0</v>
@@ -11853,13 +11853,13 @@
         <v>0</v>
       </c>
       <c r="N139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P139" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="Q139" t="n">
         <v>1</v>
@@ -11868,16 +11868,16 @@
         <v>4</v>
       </c>
       <c r="S139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
       </c>
       <c r="V139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -11898,68 +11898,68 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H140" t="n">
         <v>-1</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
       </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
       </c>
       <c r="O140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P140" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Q140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R140" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S140" t="n">
         <v>0</v>
       </c>
       <c r="T140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
       </c>
       <c r="V140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -12002,13 +12002,13 @@
         <v>-1</v>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
@@ -12017,19 +12017,19 @@
         <v>0</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P141" t="n">
         <v>3</v>
       </c>
       <c r="Q141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
@@ -12062,35 +12062,35 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:41 - 2nd Half</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>0</v>
@@ -12102,22 +12102,22 @@
         <v>1</v>
       </c>
       <c r="O142" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
       </c>
       <c r="R142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -12144,32 +12144,32 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Sat, February 14th at 8:50 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H143" t="n">
         <v>-2</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K143" t="n">
         <v>0</v>
@@ -12181,25 +12181,25 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O143" t="n">
         <v>1</v>
       </c>
       <c r="P143" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="Q143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R143" t="n">
         <v>5</v>
       </c>
       <c r="S143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T143" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,32 +12226,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12263,25 +12263,25 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>1</v>
       </c>
       <c r="P144" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Q144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T144" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
@@ -12580,11 +12580,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12593,11 +12593,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12606,11 +12606,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12632,37 +12632,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -582,32 +582,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>Matas Vokietaitis</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -616,16 +616,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="n">
         <v>6</v>
@@ -634,16 +634,16 @@
         <v>10</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="V2" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -664,17 +664,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -683,49 +683,49 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -746,68 +746,68 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Labaron Philon Jr.</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6</v>
+      </c>
+      <c r="R4" t="n">
         <v>19</v>
       </c>
-      <c r="I4" t="n">
-        <v>18</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" t="n">
-        <v>7</v>
-      </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="V4" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -828,50 +828,50 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Matas Vokietaitis</t>
+          <t>Labaron Philon Jr.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="n">
         <v>5</v>
@@ -880,16 +880,16 @@
         <v>8</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>1</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1007,23 +1007,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1032,16 +1032,16 @@
         <v>1</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="Q7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1421,10 +1421,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1439,13 +1439,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1499,17 +1499,17 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I13" t="n">
         <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1518,34 +1518,34 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="Q13" t="n">
         <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>4</v>
       </c>
       <c r="V13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1648,62 +1648,62 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ja'Kobi Gillespie</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="n">
+        <v>11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
         <v>12</v>
       </c>
-      <c r="J15" t="n">
-        <v>2</v>
-      </c>
-      <c r="K15" t="n">
-        <v>6</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>2</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="n">
-        <v>9</v>
-      </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1730,68 +1730,68 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Ja'Kobi Gillespie</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" t="n">
+        <v>12</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2</v>
+      </c>
+      <c r="K16" t="n">
         <v>6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>9</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="n">
         <v>8</v>
       </c>
-      <c r="K16" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-      <c r="P16" t="n">
-        <v>26</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1827,35 +1827,35 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
         <v>10</v>
       </c>
-      <c r="I17" t="n">
-        <v>6</v>
-      </c>
-      <c r="J17" t="n">
-        <v>7</v>
-      </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P17" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="n">
         <v>3</v>
@@ -1867,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -2098,28 +2098,28 @@
         <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P20" t="n">
         <v>34</v>
       </c>
       <c r="Q20" t="n">
+        <v>8</v>
+      </c>
+      <c r="R20" t="n">
+        <v>17</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="n">
+        <v>8</v>
+      </c>
+      <c r="U20" t="n">
         <v>7</v>
       </c>
-      <c r="R20" t="n">
-        <v>14</v>
-      </c>
-      <c r="S20" t="n">
-        <v>2</v>
-      </c>
-      <c r="T20" t="n">
-        <v>6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
       <c r="V20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -2550,68 +2550,68 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Aden Holloway</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="Q26" t="n">
         <v>6</v>
       </c>
       <c r="R26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="n">
         <v>5</v>
       </c>
-      <c r="T26" t="n">
-        <v>7</v>
-      </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aden Holloway</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R27" t="n">
+        <v>10</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="n">
         <v>7</v>
       </c>
-      <c r="S27" t="n">
-        <v>3</v>
-      </c>
-      <c r="T27" t="n">
-        <v>4</v>
-      </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2733,16 +2733,16 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" t="n">
         <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2754,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
@@ -2772,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -3307,10 +3307,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I35" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J35" t="n">
         <v>5</v>
@@ -3319,37 +3319,37 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R35" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S35" t="n">
         <v>2</v>
       </c>
       <c r="T35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -3738,10 +3738,10 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
@@ -3823,7 +3823,7 @@
         <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
@@ -3881,16 +3881,16 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
         <v>1</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -3902,28 +3902,28 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P42" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Q42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -3959,11 +3959,11 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43" t="n">
         <v>2</v>
@@ -3978,16 +3978,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P43" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4123,53 +4123,53 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I45" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>10</v>
+      </c>
+      <c r="R45" t="n">
+        <v>15</v>
+      </c>
+      <c r="S45" t="n">
+        <v>7</v>
+      </c>
+      <c r="T45" t="n">
+        <v>10</v>
+      </c>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
         <v>5</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>8</v>
-      </c>
-      <c r="R45" t="n">
-        <v>11</v>
-      </c>
-      <c r="S45" t="n">
-        <v>6</v>
-      </c>
-      <c r="T45" t="n">
-        <v>9</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4373,16 +4373,16 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I48" t="n">
         <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
         <v>2</v>
@@ -4394,10 +4394,10 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P48" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q48" t="n">
         <v>3</v>
@@ -4783,49 +4783,49 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
+        <v>15</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>4</v>
+      </c>
+      <c r="P53" t="n">
+        <v>26</v>
+      </c>
+      <c r="Q53" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>1</v>
-      </c>
-      <c r="O53" t="n">
-        <v>2</v>
-      </c>
-      <c r="P53" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2</v>
-      </c>
       <c r="R53" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4861,17 +4861,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -4886,28 +4886,28 @@
         <v>1</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -4928,68 +4928,68 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I55" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>1</v>
       </c>
       <c r="P55" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q55" t="n">
         <v>9</v>
       </c>
       <c r="R55" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T55" t="n">
         <v>6</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56">
@@ -5010,17 +5010,17 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rueben Chinyelu</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -5029,49 +5029,49 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I56" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="J56" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R56" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,33 +5092,33 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Rueben Chinyelu</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
+        <v>19</v>
+      </c>
+      <c r="I57" t="n">
         <v>10</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>11</v>
       </c>
-      <c r="J57" t="n">
-        <v>4</v>
-      </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
@@ -5126,34 +5126,34 @@
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P57" t="n">
         <v>23</v>
       </c>
       <c r="Q57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R57" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="S57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5439,49 +5439,49 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I61" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J61" t="n">
+        <v>6</v>
+      </c>
+      <c r="K61" t="n">
+        <v>6</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
         <v>5</v>
       </c>
-      <c r="K61" t="n">
+      <c r="P61" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>8</v>
+      </c>
+      <c r="R61" t="n">
+        <v>13</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
         <v>5</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" t="n">
-        <v>1</v>
-      </c>
-      <c r="O61" t="n">
-        <v>4</v>
-      </c>
-      <c r="P61" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>7</v>
-      </c>
-      <c r="R61" t="n">
-        <v>12</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
-      <c r="T61" t="n">
-        <v>3</v>
-      </c>
-      <c r="U61" t="n">
-        <v>2</v>
-      </c>
-      <c r="V61" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="62">
@@ -5502,59 +5502,59 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Latrell Wrightsell</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>18</v>
       </c>
       <c r="I62" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P62" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q62" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="S62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
         <v>7</v>
@@ -5563,7 +5563,7 @@
         <v>4</v>
       </c>
       <c r="V62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -5584,12 +5584,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kuol Atak</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -5603,19 +5603,19 @@
         </is>
       </c>
       <c r="H63" t="n">
+        <v>18</v>
+      </c>
+      <c r="I63" t="n">
         <v>16</v>
       </c>
-      <c r="I63" t="n">
-        <v>18</v>
-      </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -5624,28 +5624,28 @@
         <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P63" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="Q63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
         <v>7</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64">
@@ -5666,68 +5666,68 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Latrell Wrightsell</t>
+          <t>Kuol Atak</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I64" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J64" t="n">
         <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="Q64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R64" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S64" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I67" t="n">
         <v>14</v>
@@ -5952,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P67" t="n">
         <v>33</v>
@@ -5961,13 +5961,13 @@
         <v>6</v>
       </c>
       <c r="R67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S67" t="n">
         <v>2</v>
       </c>
       <c r="T67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U67" t="n">
         <v>0</v>
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I68" t="n">
         <v>11</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
         <v>1</v>
@@ -6037,7 +6037,7 @@
         <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q68" t="n">
         <v>5</v>
@@ -6255,20 +6255,20 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I71" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L71" t="n">
         <v>0</v>
@@ -6277,25 +6277,25 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
         <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="Q71" t="n">
+        <v>11</v>
+      </c>
+      <c r="R71" t="n">
+        <v>18</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="n">
         <v>7</v>
-      </c>
-      <c r="R71" t="n">
-        <v>13</v>
-      </c>
-      <c r="S71" t="n">
-        <v>2</v>
-      </c>
-      <c r="T71" t="n">
-        <v>5</v>
       </c>
       <c r="U71" t="n">
         <v>3</v>
@@ -6404,68 +6404,68 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>2</v>
       </c>
       <c r="O73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -6486,35 +6486,35 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L74" t="n">
         <v>1</v>
@@ -6529,25 +6529,25 @@
         <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75">
@@ -6583,20 +6583,20 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -6617,13 +6617,13 @@
         <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
         <v>1</v>
@@ -6978,68 +6978,68 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Nic Codie</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>6</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
         <v>15</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="n">
-        <v>4</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>40</v>
-      </c>
       <c r="Q80" t="n">
         <v>4</v>
       </c>
       <c r="R80" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Urban Klavzar</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7082,13 +7082,13 @@
         <v>14</v>
       </c>
       <c r="I81" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L81" t="n">
         <v>0</v>
@@ -7097,31 +7097,31 @@
         <v>0</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O81" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P81" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q81" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R81" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="n">
         <v>5</v>
       </c>
-      <c r="T81" t="n">
-        <v>11</v>
-      </c>
       <c r="U81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82">
@@ -7142,17 +7142,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Urban Klavzar</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -7161,49 +7161,49 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I82" t="n">
+        <v>19</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>3</v>
+      </c>
+      <c r="P82" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>7</v>
+      </c>
+      <c r="R82" t="n">
+        <v>13</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="n">
         <v>11</v>
       </c>
-      <c r="J82" t="n">
-        <v>6</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="n">
-        <v>1</v>
-      </c>
-      <c r="O82" t="n">
-        <v>1</v>
-      </c>
-      <c r="P82" t="n">
-        <v>31</v>
-      </c>
-      <c r="Q82" t="n">
-        <v>4</v>
-      </c>
-      <c r="R82" t="n">
-        <v>9</v>
-      </c>
-      <c r="S82" t="n">
-        <v>1</v>
-      </c>
-      <c r="T82" t="n">
-        <v>4</v>
-      </c>
       <c r="U82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7224,17 +7224,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -7246,43 +7246,43 @@
         <v>12</v>
       </c>
       <c r="I83" t="n">
+        <v>11</v>
+      </c>
+      <c r="J83" t="n">
         <v>6</v>
       </c>
-      <c r="J83" t="n">
-        <v>5</v>
-      </c>
       <c r="K83" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
         <v>31</v>
       </c>
       <c r="Q83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R83" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S83" t="n">
         <v>1</v>
       </c>
       <c r="T83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V83" t="n">
         <v>2</v>
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,37 +7325,37 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="Q84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S84" t="n">
         <v>1</v>
@@ -7364,10 +7364,10 @@
         <v>3</v>
       </c>
       <c r="U84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -7388,68 +7388,68 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I85" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P85" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R85" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T85" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
@@ -7470,68 +7470,68 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I86" t="n">
+        <v>9</v>
+      </c>
+      <c r="J86" t="n">
         <v>8</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
         <v>1</v>
       </c>
       <c r="P86" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Q86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
@@ -7552,68 +7552,68 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nic Codie</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H87" t="n">
+        <v>11</v>
+      </c>
+      <c r="I87" t="n">
         <v>10</v>
       </c>
-      <c r="I87" t="n">
-        <v>7</v>
-      </c>
       <c r="J87" t="n">
         <v>4</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87" t="n">
         <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P87" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R87" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -7634,62 +7634,62 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>10</v>
       </c>
       <c r="I88" t="n">
+        <v>8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
         <v>5</v>
       </c>
-      <c r="J88" t="n">
-        <v>3</v>
-      </c>
-      <c r="K88" t="n">
-        <v>2</v>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0</v>
-      </c>
-      <c r="O88" t="n">
-        <v>2</v>
-      </c>
-      <c r="P88" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q88" t="n">
-        <v>2</v>
-      </c>
-      <c r="R88" t="n">
-        <v>3</v>
-      </c>
       <c r="S88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U88" t="n">
         <v>0</v>
@@ -7716,17 +7716,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -7735,49 +7735,49 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P89" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
         <v>3</v>
       </c>
       <c r="S89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -7798,7 +7798,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -7820,46 +7820,46 @@
         <v>9</v>
       </c>
       <c r="I90" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="Q90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
       </c>
       <c r="T90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -7880,17 +7880,17 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Ethan Burg</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -7899,7 +7899,7 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I91" t="n">
         <v>8</v>
@@ -7908,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L91" t="n">
         <v>0</v>
@@ -7923,25 +7923,25 @@
         <v>2</v>
       </c>
       <c r="P91" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R91" t="n">
         <v>4</v>
       </c>
       <c r="S91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V91" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -7962,17 +7962,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Ethan Burg</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7984,40 +7984,40 @@
         <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>1</v>
       </c>
       <c r="O92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P92" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U92" t="n">
         <v>0</v>
@@ -8044,22 +8044,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>London Jemison</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -8069,10 +8069,10 @@
         <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93" t="n">
         <v>1</v>
@@ -8084,16 +8084,16 @@
         <v>1</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P93" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="Q93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
@@ -8102,10 +8102,10 @@
         <v>0</v>
       </c>
       <c r="U93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -8126,33 +8126,33 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>London Jemison</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>8</v>
       </c>
       <c r="I94" t="n">
+        <v>2</v>
+      </c>
+      <c r="J94" t="n">
         <v>8</v>
       </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
       <c r="K94" t="n">
         <v>2</v>
       </c>
@@ -8160,34 +8160,34 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P94" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T94" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8230,19 +8230,19 @@
         <v>8</v>
       </c>
       <c r="I95" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -8251,19 +8251,19 @@
         <v>4</v>
       </c>
       <c r="P95" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Q95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R95" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8312,40 +8312,40 @@
         <v>8</v>
       </c>
       <c r="I96" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P96" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U96" t="n">
         <v>0</v>
@@ -8372,68 +8372,68 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I97" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K97" t="n">
         <v>2</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
         <v>1</v>
       </c>
       <c r="P97" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R97" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -8454,17 +8454,17 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -8473,49 +8473,49 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="n">
         <v>5</v>
       </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-      <c r="O98" t="n">
-        <v>3</v>
-      </c>
       <c r="P98" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="Q98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
       </c>
       <c r="V98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -8536,17 +8536,17 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -8555,49 +8555,49 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I99" t="n">
         <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99" t="n">
         <v>0</v>
       </c>
       <c r="N99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R99" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S99" t="n">
         <v>1</v>
       </c>
       <c r="T99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -8618,17 +8618,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -8637,16 +8637,16 @@
         </is>
       </c>
       <c r="H100" t="n">
+        <v>7</v>
+      </c>
+      <c r="I100" t="n">
         <v>6</v>
       </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>0</v>
@@ -8658,28 +8658,28 @@
         <v>1</v>
       </c>
       <c r="O100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P100" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q100" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S100" t="n">
         <v>0</v>
       </c>
       <c r="T100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U100" t="n">
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -8722,10 +8722,10 @@
         <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -8737,31 +8737,31 @@
         <v>0</v>
       </c>
       <c r="N101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P101" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q101" t="n">
         <v>2</v>
       </c>
       <c r="R101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T101" t="n">
         <v>2</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mazi Mosley</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -8804,13 +8804,13 @@
         <v>6</v>
       </c>
       <c r="I102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K102" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L102" t="n">
         <v>0</v>
@@ -8819,25 +8819,25 @@
         <v>0</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P102" t="n">
         <v>22</v>
       </c>
       <c r="Q102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R102" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T102" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U102" t="n">
         <v>0</v>
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8886,40 +8886,40 @@
         <v>6</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>0</v>
       </c>
       <c r="M103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P103" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U103" t="n">
         <v>0</v>
@@ -8946,17 +8946,17 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Mazi Mosley</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -8965,49 +8965,49 @@
         </is>
       </c>
       <c r="H104" t="n">
+        <v>6</v>
+      </c>
+      <c r="I104" t="n">
+        <v>6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>2</v>
+      </c>
+      <c r="R104" t="n">
+        <v>6</v>
+      </c>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="n">
         <v>5</v>
       </c>
-      <c r="I104" t="n">
-        <v>3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
-      <c r="K104" t="n">
-        <v>2</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0</v>
-      </c>
-      <c r="N104" t="n">
-        <v>1</v>
-      </c>
-      <c r="O104" t="n">
-        <v>1</v>
-      </c>
-      <c r="P104" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q104" t="n">
-        <v>1</v>
-      </c>
-      <c r="R104" t="n">
-        <v>1</v>
-      </c>
-      <c r="S104" t="n">
-        <v>0</v>
-      </c>
-      <c r="T104" t="n">
-        <v>0</v>
-      </c>
       <c r="U104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -9028,53 +9028,53 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H105" t="n">
+        <v>6</v>
+      </c>
+      <c r="I105" t="n">
         <v>5</v>
       </c>
-      <c r="I105" t="n">
-        <v>3</v>
-      </c>
       <c r="J105" t="n">
         <v>2</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>0</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P105" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R105" t="n">
         <v>1</v>
@@ -9110,62 +9110,62 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I106" t="n">
         <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K106" t="n">
         <v>2</v>
       </c>
       <c r="L106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P106" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q106" t="n">
         <v>1</v>
       </c>
       <c r="R106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S106" t="n">
         <v>1</v>
       </c>
       <c r="T106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U106" t="n">
         <v>0</v>
@@ -9192,17 +9192,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9211,34 +9211,34 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
+        <v>1</v>
+      </c>
+      <c r="P107" t="n">
         <v>5</v>
       </c>
-      <c r="P107" t="n">
-        <v>17</v>
-      </c>
       <c r="Q107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107" t="n">
         <v>1</v>
@@ -9250,10 +9250,10 @@
         <v>0</v>
       </c>
       <c r="U107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -9274,38 +9274,38 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M108" t="n">
         <v>0</v>
@@ -9314,28 +9314,28 @@
         <v>0</v>
       </c>
       <c r="O108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P108" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="Q108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S108" t="n">
         <v>0</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9384,22 +9384,22 @@
         <v>3</v>
       </c>
       <c r="K109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O109" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P109" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,35 +9438,35 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L110" t="n">
         <v>0</v>
@@ -9478,28 +9478,28 @@
         <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P110" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="Q110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
       </c>
       <c r="T110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -9602,38 +9602,38 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Isaiah Brown</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>FLA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H112" t="n">
         <v>3</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J112" t="n">
         <v>1</v>
       </c>
       <c r="K112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -9645,19 +9645,19 @@
         <v>0</v>
       </c>
       <c r="P112" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="Q112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R112" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U112" t="n">
         <v>0</v>
@@ -9684,35 +9684,35 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H113" t="n">
         <v>3</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
         <v>2</v>
       </c>
       <c r="K113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>0</v>
@@ -9724,10 +9724,10 @@
         <v>1</v>
       </c>
       <c r="O113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P113" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="Q113" t="n">
         <v>1</v>
@@ -9736,16 +9736,16 @@
         <v>3</v>
       </c>
       <c r="S113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -9766,29 +9766,29 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H114" t="n">
         <v>3</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J114" t="n">
         <v>1</v>
@@ -9800,34 +9800,34 @@
         <v>0</v>
       </c>
       <c r="M114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P114" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S114" t="n">
         <v>0</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
@@ -9848,56 +9848,56 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Isaiah Brown</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>FLA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H115" t="n">
         <v>3</v>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M115" t="n">
         <v>0</v>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O115" t="n">
         <v>0</v>
       </c>
       <c r="P115" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
@@ -9930,32 +9930,32 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Justin Bailey</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
         <v>3</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J116" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
         <v>1</v>
@@ -9964,28 +9964,28 @@
         <v>0</v>
       </c>
       <c r="M116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O116" t="n">
         <v>1</v>
       </c>
       <c r="P116" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R116" t="n">
         <v>3</v>
       </c>
       <c r="S116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U116" t="n">
         <v>0</v>
@@ -10012,12 +10012,12 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -10031,16 +10031,16 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J117" t="n">
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>0</v>
@@ -10052,16 +10052,16 @@
         <v>0</v>
       </c>
       <c r="O117" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P117" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R117" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S117" t="n">
         <v>0</v>
@@ -10070,10 +10070,10 @@
         <v>0</v>
       </c>
       <c r="U117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -10094,68 +10094,68 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O118" t="n">
         <v>2</v>
       </c>
       <c r="P118" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="Q118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R118" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S118" t="n">
         <v>0</v>
       </c>
       <c r="T118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119">
@@ -10176,32 +10176,32 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
         <v>0</v>
@@ -10210,22 +10210,22 @@
         <v>0</v>
       </c>
       <c r="M119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P119" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S119" t="n">
         <v>0</v>
@@ -10258,35 +10258,35 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L120" t="n">
         <v>0</v>
@@ -10295,25 +10295,25 @@
         <v>0</v>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P120" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R120" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="S120" t="n">
         <v>0</v>
       </c>
       <c r="T120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U120" t="n">
         <v>0</v>
@@ -10340,65 +10340,65 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O121" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P121" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="Q121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S121" t="n">
         <v>0</v>
       </c>
       <c r="T121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V121" t="n">
         <v>2</v>
@@ -10422,17 +10422,17 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Zach Day</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -10441,10 +10441,10 @@
         </is>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J122" t="n">
         <v>0</v>
@@ -10456,7 +10456,7 @@
         <v>0</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -10465,13 +10465,13 @@
         <v>1</v>
       </c>
       <c r="P122" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S122" t="n">
         <v>0</v>
@@ -10504,62 +10504,62 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Max Smith</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H123" t="n">
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P123" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Q123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R123" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U123" t="n">
         <v>0</v>
@@ -10586,56 +10586,56 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Noah Williamson</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>ALA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H124" t="n">
         <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
       <c r="L124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124" t="n">
         <v>0</v>
       </c>
       <c r="N124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O124" t="n">
         <v>1</v>
       </c>
       <c r="P124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
@@ -10644,10 +10644,10 @@
         <v>0</v>
       </c>
       <c r="U124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -10668,17 +10668,17 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Max Smith</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -10690,40 +10690,40 @@
         <v>1</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
       </c>
       <c r="K125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
@@ -10750,29 +10750,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Noah Williamson</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ALA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>UK@FLA</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H126" t="n">
         <v>1</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="n">
         <v>1</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M126" t="n">
         <v>0</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O126" t="n">
         <v>1</v>
       </c>
       <c r="P126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -10808,10 +10808,10 @@
         <v>0</v>
       </c>
       <c r="U126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127">
@@ -10832,41 +10832,41 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -10875,19 +10875,19 @@
         <v>3</v>
       </c>
       <c r="P127" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -10914,26 +10914,26 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UK@FLA</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -10942,34 +10942,34 @@
         <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
         <v>1</v>
       </c>
       <c r="P128" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,62 +10996,62 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>TA&amp;M@VAN</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J129" t="n">
         <v>0</v>
       </c>
       <c r="K129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L129" t="n">
         <v>0</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P129" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,38 +11078,38 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Jake Wilkins</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
         <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
         <v>0</v>
@@ -11118,22 +11118,22 @@
         <v>2</v>
       </c>
       <c r="O130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P130" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="Q130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R130" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S130" t="n">
         <v>0</v>
       </c>
       <c r="T130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U130" t="n">
         <v>0</v>
@@ -11160,7 +11160,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -11182,13 +11182,13 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L131" t="n">
         <v>0</v>
@@ -11197,25 +11197,25 @@
         <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="Q131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R131" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T131" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U131" t="n">
         <v>0</v>
@@ -11242,7 +11242,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Jake Wilkins</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -11264,40 +11264,40 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M132" t="n">
         <v>0</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P132" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R132" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S132" t="n">
         <v>0</v>
       </c>
       <c r="T132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U132" t="n">
         <v>0</v>
@@ -11324,17 +11324,17 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TA&amp;M@VAN</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -11349,7 +11349,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K133" t="n">
         <v>0</v>
@@ -11361,13 +11361,13 @@
         <v>0</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
       </c>
       <c r="P133" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -11406,32 +11406,32 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Nordin Kapic</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>SC@ALA</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134" t="n">
         <v>0</v>
@@ -11449,19 +11449,19 @@
         <v>0</v>
       </c>
       <c r="P134" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Q134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R134" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S134" t="n">
         <v>0</v>
       </c>
       <c r="T134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U134" t="n">
         <v>0</v>
@@ -11488,22 +11488,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Simon Walker</t>
+          <t>Niko Bundalo</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="P135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -11570,32 +11570,32 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Nordin Kapic</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>SC@ALA</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>3:51 - 2nd Half</t>
         </is>
       </c>
       <c r="H136" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136" t="n">
         <v>0</v>
@@ -11613,19 +11613,19 @@
         <v>0</v>
       </c>
       <c r="P136" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="Q136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S136" t="n">
         <v>0</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U136" t="n">
         <v>0</v>
@@ -11652,35 +11652,35 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Simon Walker</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>UGA@OU</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H137" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L137" t="n">
         <v>0</v>
@@ -11689,31 +11689,31 @@
         <v>0</v>
       </c>
       <c r="N137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P137" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="Q137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T137" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U137" t="n">
         <v>0</v>
       </c>
       <c r="V137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -11734,22 +11734,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>AUB@ARK</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>10:25 - 2nd Half</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -11768,7 +11768,7 @@
         <v>0</v>
       </c>
       <c r="M138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -11783,13 +11783,13 @@
         <v>0</v>
       </c>
       <c r="R138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S138" t="n">
         <v>0</v>
       </c>
       <c r="T138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U138" t="n">
         <v>0</v>
@@ -11816,38 +11816,38 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>TEX@MIZ</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:38 - 2nd Half</t>
         </is>
       </c>
       <c r="H139" t="n">
         <v>-1</v>
       </c>
       <c r="I139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M139" t="n">
         <v>0</v>
@@ -11859,19 +11859,19 @@
         <v>1</v>
       </c>
       <c r="P139" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Q139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R139" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S139" t="n">
         <v>0</v>
       </c>
       <c r="T139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U139" t="n">
         <v>0</v>
@@ -11898,35 +11898,35 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>UGA@OU</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H140" t="n">
         <v>-1</v>
       </c>
       <c r="I140" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140" t="n">
         <v>1</v>
       </c>
       <c r="K140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L140" t="n">
         <v>0</v>
@@ -11935,13 +11935,13 @@
         <v>0</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P140" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="Q140" t="n">
         <v>1</v>
@@ -11950,10 +11950,10 @@
         <v>4</v>
       </c>
       <c r="S140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U140" t="n">
         <v>0</v>
@@ -11980,17 +11980,17 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Troy Henderson</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>LSU@TENN</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -12008,16 +12008,16 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>0</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O141" t="n">
         <v>0</v>
@@ -12029,13 +12029,13 @@
         <v>0</v>
       </c>
       <c r="R141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S141" t="n">
         <v>0</v>
       </c>
       <c r="T141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U141" t="n">
         <v>0</v>
@@ -12062,32 +12062,32 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>AUB@ARK</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>10:41 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H142" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="n">
         <v>0</v>
@@ -12099,25 +12099,25 @@
         <v>0</v>
       </c>
       <c r="N142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O142" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P142" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R142" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S142" t="n">
         <v>0</v>
       </c>
       <c r="T142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U142" t="n">
         <v>0</v>
@@ -12144,17 +12144,17 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>MSST@MISS</t>
+          <t>LSU@TENN</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -12163,16 +12163,16 @@
         </is>
       </c>
       <c r="H143" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L143" t="n">
         <v>0</v>
@@ -12181,25 +12181,25 @@
         <v>0</v>
       </c>
       <c r="N143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P143" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="Q143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U143" t="n">
         <v>0</v>
@@ -12226,32 +12226,32 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>TEX@MIZ</t>
+          <t>MSST@MISS</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J144" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K144" t="n">
         <v>0</v>
@@ -12263,25 +12263,25 @@
         <v>0</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O144" t="n">
         <v>1</v>
       </c>
       <c r="P144" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R144" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T144" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U144" t="n">
         <v>0</v>
@@ -12580,11 +12580,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -12593,11 +12593,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
@@ -12606,11 +12606,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
@@ -12632,27 +12632,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -12662,7 +12662,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="n">
         <v>5</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-02-14.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2565,7 +2565,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -3057,7 +3057,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -3959,7 +3959,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -4807,7 +4807,7 @@
         <v>4</v>
       </c>
       <c r="P53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q53" t="n">
         <v>5</v>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -6009,7 +6009,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -7403,7 +7403,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -7649,7 +7649,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -8387,7 +8387,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -9617,7 +9617,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -9699,7 +9699,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -9781,7 +9781,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -10055,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="P117" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q117" t="n">
         <v>2</v>
@@ -10109,7 +10109,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -10273,7 +10273,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -10355,7 +10355,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -11011,7 +11011,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -11093,7 +11093,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>3:51 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -11749,7 +11749,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>10:25 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>14:38 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H139" t="n">
